--- a/VersionRecords/Version 5.2.0_beta 20161115/版本Bug和特性计划及评审表v5.2.0_beta.xlsx
+++ b/VersionRecords/Version 5.2.0_beta 20161115/版本Bug和特性计划及评审表v5.2.0_beta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27975" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.2.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>No</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>房态房源数据库</t>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+  </si>
+  <si>
+    <t>消息模板，见附件</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -264,12 +270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -312,12 +318,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -453,13 +453,6 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,167 +917,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,9 +1213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1244,13 +1234,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1813,8 +1800,8 @@
       <c r="R2" s="36"/>
       <c r="S2" s="36"/>
       <c r="T2" s="44"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A3" s="28">
@@ -1859,8 +1846,8 @@
       <c r="R3" s="36"/>
       <c r="S3" s="36"/>
       <c r="T3" s="44"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="46"/>
     </row>
     <row r="4" s="23" customFormat="1" ht="16.5" customHeight="1" spans="1:22">
       <c r="A4" s="28">
@@ -1905,8 +1892,8 @@
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="44"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="46"/>
     </row>
     <row r="5" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A5" s="28">
@@ -1951,8 +1938,8 @@
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
       <c r="T5" s="44"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A6" s="28">
@@ -1997,8 +1984,8 @@
       <c r="R6" s="36"/>
       <c r="S6" s="36"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="46"/>
     </row>
     <row r="7" s="23" customFormat="1" ht="33" spans="1:22">
       <c r="A7" s="28">
@@ -2043,8 +2030,8 @@
       <c r="R7" s="36"/>
       <c r="S7" s="36"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="46"/>
     </row>
     <row r="8" s="23" customFormat="1" ht="33" spans="1:22">
       <c r="A8" s="28">
@@ -2089,8 +2076,8 @@
       <c r="R8" s="36"/>
       <c r="S8" s="36"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="46"/>
     </row>
     <row r="9" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A9" s="28"/>
@@ -2110,11 +2097,11 @@
       <c r="O9" s="39"/>
       <c r="P9" s="31"/>
       <c r="Q9" s="39"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="46"/>
     </row>
     <row r="10" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A10" s="28"/>
@@ -2137,8 +2124,8 @@
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="46"/>
     </row>
     <row r="11" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A11" s="28"/>
@@ -2161,8 +2148,8 @@
       <c r="R11" s="36"/>
       <c r="S11" s="36"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="46"/>
     </row>
     <row r="12" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A12" s="28"/>
@@ -2185,8 +2172,8 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A13" s="28"/>
@@ -2209,8 +2196,8 @@
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="46"/>
     </row>
     <row r="14" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A14" s="28"/>
@@ -2233,8 +2220,8 @@
       <c r="R14" s="36"/>
       <c r="S14" s="36"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="46"/>
     </row>
     <row r="15" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A15" s="28"/>
@@ -2257,8 +2244,8 @@
       <c r="R15" s="36"/>
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="46"/>
     </row>
     <row r="16" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A16" s="28"/>
@@ -2281,8 +2268,8 @@
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="46"/>
     </row>
     <row r="17" s="23" customFormat="1" ht="16.5" spans="1:22">
       <c r="A17" s="28"/>
@@ -2305,8 +2292,8 @@
       <c r="R17" s="36"/>
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="47"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="46"/>
     </row>
     <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="28"/>
@@ -2398,7 +2385,7 @@
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
       <c r="T21" s="36"/>
-      <c r="U21" s="48"/>
+      <c r="U21" s="47"/>
     </row>
     <row r="22" ht="16.5" spans="1:21">
       <c r="A22" s="28"/>
@@ -2421,7 +2408,7 @@
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
-      <c r="U22" s="48"/>
+      <c r="U22" s="47"/>
     </row>
     <row r="23" ht="16.5" spans="1:21">
       <c r="A23" s="28"/>
@@ -2444,7 +2431,7 @@
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
-      <c r="U23" s="48"/>
+      <c r="U23" s="47"/>
     </row>
     <row r="24" ht="16.5" spans="1:21">
       <c r="A24" s="28"/>
@@ -2464,10 +2451,10 @@
       <c r="O24" s="39"/>
       <c r="P24" s="31"/>
       <c r="Q24" s="39"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="52"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="51"/>
     </row>
     <row r="25" ht="16.5" spans="1:21">
       <c r="A25" s="28"/>
@@ -2487,10 +2474,10 @@
       <c r="O25" s="39"/>
       <c r="P25" s="31"/>
       <c r="Q25" s="39"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="51"/>
     </row>
     <row r="26" ht="16.5" spans="1:21">
       <c r="A26" s="28"/>
@@ -2510,10 +2497,10 @@
       <c r="O26" s="39"/>
       <c r="P26" s="31"/>
       <c r="Q26" s="39"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="51"/>
     </row>
     <row r="27" ht="16.5" spans="1:21">
       <c r="A27" s="28"/>
@@ -2533,10 +2520,10 @@
       <c r="O27" s="39"/>
       <c r="P27" s="31"/>
       <c r="Q27" s="39"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="51"/>
     </row>
     <row r="28" ht="16.5" spans="1:21">
       <c r="A28" s="28"/>
@@ -2556,10 +2543,10 @@
       <c r="O28" s="39"/>
       <c r="P28" s="31"/>
       <c r="Q28" s="39"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="51"/>
     </row>
     <row r="29" ht="16.5" spans="1:21">
       <c r="A29" s="28"/>
@@ -2579,9 +2566,9 @@
       <c r="O29" s="39"/>
       <c r="P29" s="31"/>
       <c r="Q29" s="39"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
       <c r="U29" s="39"/>
     </row>
     <row r="30" ht="16.5" spans="1:21">
@@ -2605,7 +2592,7 @@
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
-      <c r="U30" s="48"/>
+      <c r="U30" s="47"/>
     </row>
     <row r="31" ht="16.5" spans="1:21">
       <c r="A31" s="28"/>
@@ -2628,7 +2615,7 @@
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
-      <c r="U31" s="48"/>
+      <c r="U31" s="47"/>
     </row>
     <row r="32" ht="16.5" spans="1:21">
       <c r="A32" s="28"/>
@@ -2651,7 +2638,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
-      <c r="U32" s="48"/>
+      <c r="U32" s="47"/>
     </row>
     <row r="33" ht="16.5" spans="1:21">
       <c r="A33" s="28"/>
@@ -2671,10 +2658,10 @@
       <c r="O33" s="39"/>
       <c r="P33" s="31"/>
       <c r="Q33" s="39"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="51"/>
     </row>
     <row r="34" ht="49.5" spans="1:21">
       <c r="A34" s="28"/>
@@ -2697,7 +2684,7 @@
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
       <c r="T34" s="36"/>
-      <c r="U34" s="46" t="s">
+      <c r="U34" s="45" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2722,7 +2709,7 @@
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
       <c r="T35" s="36"/>
-      <c r="U35" s="48"/>
+      <c r="U35" s="47"/>
     </row>
     <row r="36" ht="16.5" spans="1:21">
       <c r="A36" s="28"/>
@@ -2745,7 +2732,7 @@
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
       <c r="T36" s="36"/>
-      <c r="U36" s="48"/>
+      <c r="U36" s="47"/>
     </row>
     <row r="37" ht="16.5" spans="1:21">
       <c r="A37" s="28"/>
@@ -2768,7 +2755,7 @@
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
       <c r="T37" s="36"/>
-      <c r="U37" s="48"/>
+      <c r="U37" s="47"/>
     </row>
     <row r="38" ht="16.5" spans="1:21">
       <c r="A38" s="28"/>
@@ -2791,7 +2778,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
       <c r="T38" s="36"/>
-      <c r="U38" s="48"/>
+      <c r="U38" s="47"/>
     </row>
     <row r="39" ht="16.5" spans="1:21">
       <c r="A39" s="28"/>
@@ -2814,7 +2801,7 @@
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
       <c r="T39" s="36"/>
-      <c r="U39" s="48"/>
+      <c r="U39" s="47"/>
     </row>
     <row r="40" ht="16.5" spans="1:21">
       <c r="A40" s="28"/>
@@ -2837,7 +2824,7 @@
       <c r="R40" s="36"/>
       <c r="S40" s="36"/>
       <c r="T40" s="36"/>
-      <c r="U40" s="48"/>
+      <c r="U40" s="47"/>
     </row>
     <row r="41" ht="16.5" spans="1:21">
       <c r="A41" s="28"/>
@@ -2860,7 +2847,7 @@
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
       <c r="T41" s="36"/>
-      <c r="U41" s="48"/>
+      <c r="U41" s="47"/>
     </row>
     <row r="42" ht="16.5" spans="1:21">
       <c r="A42" s="28"/>
@@ -2883,7 +2870,7 @@
       <c r="R42" s="36"/>
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
-      <c r="U42" s="48"/>
+      <c r="U42" s="47"/>
     </row>
     <row r="43" ht="16.5" spans="1:21">
       <c r="A43" s="28"/>
@@ -2906,7 +2893,7 @@
       <c r="R43" s="36"/>
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
-      <c r="U43" s="48"/>
+      <c r="U43" s="47"/>
     </row>
     <row r="44" ht="16.5" spans="1:21">
       <c r="A44" s="28"/>
@@ -2929,7 +2916,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
       <c r="T44" s="36"/>
-      <c r="U44" s="48"/>
+      <c r="U44" s="47"/>
     </row>
     <row r="45" ht="16.5" spans="1:21">
       <c r="A45" s="28"/>
@@ -2949,10 +2936,10 @@
       <c r="O45" s="39"/>
       <c r="P45" s="31"/>
       <c r="Q45" s="39"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="47"/>
     </row>
     <row r="46" ht="16.5" spans="1:21">
       <c r="A46" s="28"/>
@@ -2972,10 +2959,10 @@
       <c r="O46" s="39"/>
       <c r="P46" s="31"/>
       <c r="Q46" s="39"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="47"/>
     </row>
     <row r="47" ht="16.5" spans="1:21">
       <c r="A47" s="28"/>
@@ -2988,7 +2975,7 @@
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="31"/>
-      <c r="K47" s="45"/>
+      <c r="K47" s="43"/>
       <c r="L47" s="39"/>
       <c r="M47" s="39"/>
       <c r="N47" s="30"/>
@@ -3011,7 +2998,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="31"/>
-      <c r="K48" s="45"/>
+      <c r="K48" s="43"/>
       <c r="L48" s="39"/>
       <c r="M48" s="39"/>
       <c r="N48" s="30"/>
@@ -3034,7 +3021,7 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
-      <c r="K49" s="45"/>
+      <c r="K49" s="43"/>
       <c r="L49" s="39"/>
       <c r="M49" s="39"/>
       <c r="N49" s="30"/>
@@ -3057,7 +3044,7 @@
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="31"/>
-      <c r="K50" s="45"/>
+      <c r="K50" s="43"/>
       <c r="L50" s="39"/>
       <c r="M50" s="39"/>
       <c r="N50" s="30"/>
@@ -3080,7 +3067,7 @@
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="31"/>
-      <c r="K51" s="45"/>
+      <c r="K51" s="43"/>
       <c r="L51" s="39"/>
       <c r="M51" s="39"/>
       <c r="N51" s="30"/>
@@ -3103,7 +3090,7 @@
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
       <c r="J52" s="31"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="43"/>
       <c r="L52" s="39"/>
       <c r="M52" s="39"/>
       <c r="N52" s="30"/>
@@ -3126,7 +3113,7 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
-      <c r="K53" s="45"/>
+      <c r="K53" s="43"/>
       <c r="L53" s="39"/>
       <c r="M53" s="39"/>
       <c r="N53" s="30"/>
@@ -5727,23 +5714,23 @@
   </sheetData>
   <autoFilter ref="A1:U20"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"紧急,不紧急"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G$1:G$1048576 I1:I2 I5:I6 I9:I1048576 T$1:T$1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G$1:G$1048576 I1:I2 I5:I6 I9:I1048576 T$1:T$1048576">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"重要,不重要"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
-      <formula1>"通过,不通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
       <formula1>"能,否"</formula1>
@@ -5761,7 +5748,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -5952,13 +5939,23 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" ht="16.5" spans="1:13">
-      <c r="A7" s="11"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -6776,28 +6773,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">

--- a/VersionRecords/Version 5.2.0_beta 20161115/版本Bug和特性计划及评审表v5.2.0_beta.xlsx
+++ b/VersionRecords/Version 5.2.0_beta 20161115/版本Bug和特性计划及评审表v5.2.0_beta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="10920"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.2.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 threadpool.properties</t>
   </si>
   <si>
-    <t>从旧的app 复制4个文件</t>
+    <t>从旧的app 复制4个文件,修改systemconfig.properties  第一个的配置文件路径</t>
   </si>
   <si>
     <t>jdbc.properties</t>
@@ -270,10 +270,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1662,7 +1662,7 @@
   <sheetPr/>
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -5714,17 +5714,17 @@
   </sheetData>
   <autoFilter ref="A1:U20"/>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G$1:G$1048576 I1:I2 I5:I6 I9:I1048576 T$1:T$1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"重要,不重要"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G$1:G$1048576 I1:I2 I5:I6 I9:I1048576 T$1:T$1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"紧急,不紧急"</formula1>
@@ -5747,8 +5747,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6103,11 +6103,11 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -6418,14 +6418,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -6733,14 +6733,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>

--- a/VersionRecords/Version 5.2.0_beta 20161115/版本Bug和特性计划及评审表v5.2.0_beta.xlsx
+++ b/VersionRecords/Version 5.2.0_beta 20161115/版本Bug和特性计划及评审表v5.2.0_beta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.2.0新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -426,6 +426,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -457,6 +462,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -468,19 +481,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -654,6 +654,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,24 +691,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +887,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -901,17 +912,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -923,7 +923,7 @@
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,7 +950,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
@@ -971,10 +971,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="1">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -993,7 +993,7 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1005,27 +1005,27 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,19 +1038,19 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,7 +1060,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,7 +1069,7 @@
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -1662,8 +1662,8 @@
   <sheetPr/>
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1678,7 +1678,7 @@
     <col min="9" max="9" width="9.625" style="24" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="25" customWidth="1"/>
     <col min="11" max="11" width="10.25" style="25" customWidth="1"/>
-    <col min="12" max="12" width="25.75" style="24" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="24" customWidth="1"/>
     <col min="13" max="13" width="15.875" style="24" customWidth="1"/>
     <col min="14" max="14" width="11.375" style="24" customWidth="1"/>
     <col min="15" max="15" width="10" style="25" customWidth="1"/>
@@ -1835,7 +1835,7 @@
         <v>42688</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="39"/>
+      <c r="L3" s="30"/>
       <c r="M3" s="30" t="s">
         <v>27</v>
       </c>
@@ -5714,14 +5714,14 @@
   </sheetData>
   <autoFilter ref="A1:U20"/>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G$1:G$1048576 I1:I2 I5:I6 I9:I1048576 T$1:T$1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
       <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"重要,不重要"</formula1>
@@ -5747,8 +5747,8 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6103,17 +6103,17 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6418,9 +6418,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -6429,6 +6426,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6733,9 +6733,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -6744,6 +6741,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
